--- a/doc/vhdl_entity/bs_common_pin_v5.xlsx
+++ b/doc/vhdl_entity/bs_common_pin_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymedia\vivado\zsrc\src_common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymedia\vivado\bs_src\doc\vhdl_entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9DB29C-9829-4798-ACDA-7B0E28C59942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE98BBB-F174-4257-BD4C-8D33B814150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-65760" yWindow="12150" windowWidth="53235" windowHeight="16185" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2110" yWindow="2270" windowWidth="44000" windowHeight="17510" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BS_5USEC" sheetId="69" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="BS_SW_LED_AXU15EGB" sheetId="98" r:id="rId9"/>
     <sheet name="BS_SW_LED_BF" sheetId="99" r:id="rId10"/>
     <sheet name="BS_SW_LED" sheetId="70" r:id="rId11"/>
-    <sheet name="BS_SYNC_GEN" sheetId="95" r:id="rId12"/>
-    <sheet name="BS_USEC" sheetId="96" r:id="rId13"/>
+    <sheet name="BS_SW_LED_P1" sheetId="100" r:id="rId12"/>
+    <sheet name="BS_SYNC_GEN" sheetId="95" r:id="rId13"/>
+    <sheet name="BS_USEC" sheetId="96" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="195">
   <si>
     <t xml:space="preserve">  generic (</t>
   </si>
@@ -712,6 +713,14 @@
   </si>
   <si>
     <t>tpulse_us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_sw_led_p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_sw_led_p1_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3725,6 +3734,918 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB604094-A8FF-4E61-BDE6-07BC645D1994}">
+  <dimension ref="A1:H155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.4140625" customWidth="1"/>
+    <col min="5" max="5" width="107.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="str">
+        <f>"entity "&amp;A11&amp;" is"</f>
+        <v>entity bs_sw_led_p1 is</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>"component "&amp;A11&amp;" is"</f>
+        <v>component bs_sw_led_p1 is</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>(C11&amp;" : "&amp;A11)</f>
+        <v>bs_sw_led_p1_i : bs_sw_led_p1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="str">
+        <f>"    -- componet [ "&amp;C11&amp;" ] signal define"</f>
+        <v xml:space="preserve">    -- componet [ bs_sw_led_p1_i ] signal define</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A14)&amp; " : " &amp;TRIM(B14)&amp;" "&amp;TRIM(C14)&amp;";")</f>
+        <v xml:space="preserve">    vcc_out : out std_logic;</v>
+      </c>
+      <c r="F14" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A14)&amp; " : " &amp;TRIM(B14)&amp;" "&amp;TRIM(C14)&amp;";")</f>
+        <v xml:space="preserve">    vcc_out : out std_logic;</v>
+      </c>
+      <c r="G14" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A14) &amp; " =&gt; "&amp;TRIM(A14)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    vcc_out =&gt; vcc_out_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H14" t="str">
+        <f xml:space="preserve"> IF(C14="std_logic",("signal "&amp;TRIM(A14)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C14) &amp;" := '0';"),("signal "&amp;TRIM(A14) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C14 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal vcc_out_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A15)&amp; " : " &amp;TRIM(B15)&amp;" "&amp;TRIM(C15)&amp;";")</f>
+        <v xml:space="preserve">    gnd_out : out std_logic;</v>
+      </c>
+      <c r="F15" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A15)&amp; " : " &amp;TRIM(B15)&amp;" "&amp;TRIM(C15)&amp;";")</f>
+        <v xml:space="preserve">    gnd_out : out std_logic;</v>
+      </c>
+      <c r="G15" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A15) &amp; " =&gt; "&amp;TRIM(A15)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    gnd_out =&gt; gnd_out_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H15" t="str">
+        <f xml:space="preserve"> IF(C15="std_logic",("signal "&amp;TRIM(A15)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C15) &amp;" := '0';"),("signal "&amp;TRIM(A15) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C15 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal gnd_out_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A17)&amp; " : " &amp;TRIM(B17)&amp;" "&amp;TRIM(C17)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_0 : out std_logic;</v>
+      </c>
+      <c r="F17" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A17)&amp; " : " &amp;TRIM(B17)&amp;" "&amp;TRIM(C17)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_0 : out std_logic;</v>
+      </c>
+      <c r="G17" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A17) &amp; " =&gt; "&amp;TRIM(A17)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    m_dip_0 =&gt; m_dip_0_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H17" t="str">
+        <f xml:space="preserve"> IF(C17="std_logic",("signal "&amp;TRIM(A17)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C17) &amp;" := '0';"),("signal "&amp;TRIM(A17) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C17 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal m_dip_0_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A18)&amp; " : " &amp;TRIM(B18)&amp;" "&amp;TRIM(C18)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_1 : out std_logic;</v>
+      </c>
+      <c r="F18" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A18)&amp; " : " &amp;TRIM(B18)&amp;" "&amp;TRIM(C18)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_1 : out std_logic;</v>
+      </c>
+      <c r="G18" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A18) &amp; " =&gt; "&amp;TRIM(A18)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    m_dip_1 =&gt; m_dip_1_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H18" t="str">
+        <f xml:space="preserve"> IF(C18="std_logic",("signal "&amp;TRIM(A18)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C18) &amp;" := '0';"),("signal "&amp;TRIM(A18) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C18 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal m_dip_1_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A19)&amp; " : " &amp;TRIM(B19)&amp;" "&amp;TRIM(C19)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_2 : out std_logic;</v>
+      </c>
+      <c r="F19" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A19)&amp; " : " &amp;TRIM(B19)&amp;" "&amp;TRIM(C19)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_2 : out std_logic;</v>
+      </c>
+      <c r="G19" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A19) &amp; " =&gt; "&amp;TRIM(A19)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    m_dip_2 =&gt; m_dip_2_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H19" t="str">
+        <f xml:space="preserve"> IF(C19="std_logic",("signal "&amp;TRIM(A19)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C19) &amp;" := '0';"),("signal "&amp;TRIM(A19) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C19 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal m_dip_2_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A20)&amp; " : " &amp;TRIM(B20)&amp;" "&amp;TRIM(C20)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_3 : out std_logic;</v>
+      </c>
+      <c r="F20" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A20)&amp; " : " &amp;TRIM(B20)&amp;" "&amp;TRIM(C20)&amp;";")</f>
+        <v xml:space="preserve">    m_dip_3 : out std_logic;</v>
+      </c>
+      <c r="G20" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A20) &amp; " =&gt; "&amp;TRIM(A20)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    m_dip_3 =&gt; m_dip_3_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H20" t="str">
+        <f xml:space="preserve"> IF(C20="std_logic",("signal "&amp;TRIM(A20)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C20) &amp;" := '0';"),("signal "&amp;TRIM(A20) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C20 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal m_dip_3_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A21)&amp; " : " &amp;TRIM(B21)&amp;" "&amp;TRIM(C21)&amp;";")</f>
+        <v xml:space="preserve">    s_dip_in : in std_logic_vector(3 downto 0);</v>
+      </c>
+      <c r="F21" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A21)&amp; " : " &amp;TRIM(B21)&amp;" "&amp;TRIM(C21)&amp;";")</f>
+        <v xml:space="preserve">    s_dip_in : in std_logic_vector(3 downto 0);</v>
+      </c>
+      <c r="G21" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A21) &amp; " =&gt; "&amp;TRIM(A21)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    s_dip_in =&gt; s_dip_in_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H21" t="str">
+        <f xml:space="preserve"> IF(C21="std_logic",("signal "&amp;TRIM(A21)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C21) &amp;" := '0';"),("signal "&amp;TRIM(A21) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C21 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal s_dip_in_bs_sw_led_p1_i : std_logic_vector(3 downto 0) := (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A23)&amp; " : " &amp;TRIM(B23)&amp;" "&amp;TRIM(C23)&amp;";")</f>
+        <v xml:space="preserve">    s_led_0 : in std_logic;</v>
+      </c>
+      <c r="F23" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A23)&amp; " : " &amp;TRIM(B23)&amp;" "&amp;TRIM(C23)&amp;";")</f>
+        <v xml:space="preserve">    s_led_0 : in std_logic;</v>
+      </c>
+      <c r="G23" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A23) &amp; " =&gt; "&amp;TRIM(A23)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    s_led_0 =&gt; s_led_0_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H23" t="str">
+        <f xml:space="preserve"> IF(C23="std_logic",("signal "&amp;TRIM(A23)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C23) &amp;" := '0';"),("signal "&amp;TRIM(A23) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C23 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal s_led_0_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A24)&amp; " : " &amp;TRIM(B24)&amp;" "&amp;TRIM(C24)&amp;";")</f>
+        <v xml:space="preserve">    s_led_1 : in std_logic;</v>
+      </c>
+      <c r="F24" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A24)&amp; " : " &amp;TRIM(B24)&amp;" "&amp;TRIM(C24)&amp;";")</f>
+        <v xml:space="preserve">    s_led_1 : in std_logic;</v>
+      </c>
+      <c r="G24" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A24) &amp; " =&gt; "&amp;TRIM(A24)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    s_led_1 =&gt; s_led_1_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H24" t="str">
+        <f xml:space="preserve"> IF(C24="std_logic",("signal "&amp;TRIM(A24)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C24) &amp;" := '0';"),("signal "&amp;TRIM(A24) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C24 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal s_led_1_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A25)&amp; " : " &amp;TRIM(B25)&amp;" "&amp;TRIM(C25)&amp;";")</f>
+        <v xml:space="preserve">    s_led_2 : in std_logic;</v>
+      </c>
+      <c r="F25" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A25)&amp; " : " &amp;TRIM(B25)&amp;" "&amp;TRIM(C25)&amp;";")</f>
+        <v xml:space="preserve">    s_led_2 : in std_logic;</v>
+      </c>
+      <c r="G25" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A25) &amp; " =&gt; "&amp;TRIM(A25)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    s_led_2 =&gt; s_led_2_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H25" t="str">
+        <f xml:space="preserve"> IF(C25="std_logic",("signal "&amp;TRIM(A25)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C25) &amp;" := '0';"),("signal "&amp;TRIM(A25) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C25 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal s_led_2_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A26)&amp; " : " &amp;TRIM(B26)&amp;" "&amp;TRIM(C26)&amp;";")</f>
+        <v xml:space="preserve">    s_led_3 : in std_logic;</v>
+      </c>
+      <c r="F26" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A26)&amp; " : " &amp;TRIM(B26)&amp;" "&amp;TRIM(C26)&amp;";")</f>
+        <v xml:space="preserve">    s_led_3 : in std_logic;</v>
+      </c>
+      <c r="G26" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A26) &amp; " =&gt; "&amp;TRIM(A26)&amp;"_"&amp;TRIM($C$11)&amp;",")</f>
+        <v xml:space="preserve">    s_led_3 =&gt; s_led_3_bs_sw_led_p1_i,</v>
+      </c>
+      <c r="H26" t="str">
+        <f xml:space="preserve"> IF(C26="std_logic",("signal "&amp;TRIM(A26)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C26) &amp;" := '0';"),("signal "&amp;TRIM(A26) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C26 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal s_led_3_bs_sw_led_p1_i : std_logic := '0';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A27)&amp; " : " &amp;TRIM(B27)&amp;" "&amp;TRIM(C27)&amp;" ")</f>
+        <v xml:space="preserve">    m_led_out : out std_logic_vector(3 downto 0) </v>
+      </c>
+      <c r="F27" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A27)&amp; " : " &amp;TRIM(B27)&amp;" "&amp;TRIM(C27)&amp;" ")</f>
+        <v xml:space="preserve">    m_led_out : out std_logic_vector(3 downto 0) </v>
+      </c>
+      <c r="G27" t="str">
+        <f xml:space="preserve"> ("    "&amp;TRIM(A27) &amp; " =&gt; "&amp;TRIM(A27)&amp;"_"&amp;TRIM($C$11)&amp;" ")</f>
+        <v xml:space="preserve">    m_led_out =&gt; m_led_out_bs_sw_led_p1_i </v>
+      </c>
+      <c r="H27" t="str">
+        <f xml:space="preserve"> IF(C27="std_logic",("signal "&amp;TRIM(A27)&amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;TRIM(C27) &amp;" := '0';"),("signal "&amp;TRIM(A27) &amp;"_"&amp;TRIM($C$11)&amp;" : "&amp;C27 &amp;" := (others =&gt; '0');"))</f>
+        <v>signal m_led_out_bs_sw_led_p1_i : std_logic_vector(3 downto 0) := (others =&gt; '0');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E32" t="str">
+        <f xml:space="preserve"> "architecture rtl of "&amp;$A$11&amp;" is"</f>
+        <v>architecture rtl of bs_sw_led_p1 is</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E38" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E39" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E40" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E42" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E44" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E45" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E46" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E47" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E51" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E52" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E155" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED34DE-D269-440E-994C-1BE72FD4CB2D}">
   <dimension ref="A1:H145"/>
   <sheetViews>
@@ -4370,11 +5291,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A49147-0E0D-4DA6-A508-089B0A6D18AE}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
